--- a/prix/sikkens.xlsx
+++ b/prix/sikkens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AD71F-A2AE-448B-A6AB-DB3FB9EB7EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1821C4-3DAD-45BB-A9D8-47364DECF615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -532,10 +532,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -875,7 +875,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A47"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,13 +920,13 @@
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10">
-        <v>69.349999999999994</v>
+      <c r="D2" s="11">
+        <v>69.350000000000009</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>2</v>
       </c>
     </row>
@@ -940,13 +940,13 @@
       <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>4</v>
       </c>
     </row>
@@ -960,13 +960,13 @@
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -980,13 +980,13 @@
       <c r="C5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1000,13 +1000,13 @@
       <c r="C6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1020,13 +1020,13 @@
       <c r="C7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1040,13 +1040,13 @@
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1060,13 +1060,13 @@
       <c r="C9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>64.349999999999994</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1080,13 +1080,13 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1120,13 +1120,13 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1140,13 +1140,13 @@
       <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1180,13 +1180,13 @@
       <c r="C15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1200,13 +1200,13 @@
       <c r="C16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1220,13 +1220,13 @@
       <c r="C17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>143.92000000000002</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1240,13 +1240,13 @@
       <c r="C18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>49.95</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1260,13 +1260,13 @@
       <c r="C19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>49.95</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1280,13 +1280,13 @@
       <c r="C20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>49.95</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1300,13 +1300,13 @@
       <c r="C21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>49.95</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>49.95</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1340,13 +1340,13 @@
       <c r="C23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>49.95</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1360,13 +1360,13 @@
       <c r="C24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>49.95</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       <c r="C25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>49.95</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1400,14 +1400,14 @@
       <c r="C26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <v>113.5</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="11">
-        <v>3</v>
+      <c r="F26" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,13 +1420,13 @@
       <c r="C27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>113.5</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1440,13 +1440,13 @@
       <c r="C28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <v>113.5</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1460,13 +1460,13 @@
       <c r="C29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <v>113.5</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1480,13 +1480,13 @@
       <c r="C30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>113.5</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1500,13 +1500,13 @@
       <c r="C31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>113.5</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1520,13 +1520,13 @@
       <c r="C32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <v>113.5</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <v>113.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
         <v>84</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>2.5</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1576,13 +1576,13 @@
       <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <v>64.5</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1596,13 +1596,13 @@
       <c r="C36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>64.5</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1616,13 +1616,13 @@
       <c r="C37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <v>64.5</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1636,13 +1636,13 @@
       <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>64.5</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1656,13 +1656,13 @@
       <c r="C39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <v>64.5</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1676,13 +1676,13 @@
       <c r="C40" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <v>64.5</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1696,13 +1696,13 @@
       <c r="C41" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <v>64.5</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <v>64.5</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1736,13 +1736,13 @@
       <c r="C43" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <v>146.6</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1756,13 +1756,13 @@
       <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <v>146.6</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1776,13 +1776,13 @@
       <c r="C45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <v>146.6</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1796,13 +1796,13 @@
       <c r="C46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <v>146.6</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1816,13 +1816,13 @@
       <c r="C47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <v>146.6</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>0</v>
       </c>
     </row>
